--- a/HDI.xlsx
+++ b/HDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admir.jahic\Desktop\HDRO\HDR 2021\Web materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documentos\GitHub\PC2_Crisostomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC8214E-DB48-44AE-871A-E2A548183FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE5376-2C32-4084-A74E-F4ADA613720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9276" yWindow="1536" windowWidth="13152" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="331">
   <si>
     <t xml:space="preserve">Table 1. Human Development Index and its components </t>
   </si>
@@ -1643,7 +1643,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BC3C241A-0A92-44C3-ACB1-8FB8DBA68912}"/>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1961,19 +1961,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="12"/>
     <col min="2" max="2" width="45.21875" style="12" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="12" customWidth="1"/>
     <col min="6" max="6" width="2" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="12" customWidth="1"/>
@@ -1992,9 +1992,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>328</v>
-      </c>
+      <c r="A1" s="22"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9219,9 +9217,6 @@
     <mergeCell ref="B170:O170"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="cover!A1" display="Back" xr:uid="{8085566E-78DB-497C-850D-7F24CB60D8A1}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -9236,7 +9231,7 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="166.88671875" style="12" customWidth="1"/>
     <col min="2" max="16384" width="8.77734375" style="12"/>
@@ -9379,17 +9374,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Cecilia Calderon</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9572,20 +9562,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Cecilia Calderon</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9610,9 +9603,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>